--- a/tmp/Miss Willoughby - CCSL 23.98 fps (561102xCDD60)/Miss Willoughby - CCSL 23.98 fps (561102xCDD60)-recap-detailed.xlsx
+++ b/tmp/Miss Willoughby - CCSL 23.98 fps (561102xCDD60)/Miss Willoughby - CCSL 23.98 fps (561102xCDD60)-recap-detailed.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,17 +521,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 - MAIN TITLE)</t>
+          <t>2 - MAIN TITLE</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +544,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>560</v>
+        <v>748</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -601,17 +601,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - (CONT'D)</t>
+          <t xml:space="preserve">7 - </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C10" t="n">
-        <v>13730</v>
+        <v>19321</v>
       </c>
       <c r="D10" t="n">
-        <v>344</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -649,94 +649,94 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - YOUNG ROBERT)</t>
+          <t>10 - WILLOUGHBY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
-        <v>368</v>
+        <v>1433</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - WILLOUGHBY)</t>
+          <t xml:space="preserve">11 - WILLOUGHBY) </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>1247</v>
+        <v>2059</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - WILLOUGHBY) (CONT'D)</t>
+          <t xml:space="preserve">12 - YOUNG ROBERT) </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>1483</v>
+        <v>555</v>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - YOUNG ROBERT) (CONT'D)</t>
+          <t>13 - LAURA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>420</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - WILLOUGHBY</t>
+          <t>14 - YOUNG MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - LAURA</t>
+          <t>15 - YOUNG MISS WILLOUGHBY) (CONT'D</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -745,78 +745,78 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - YOUNG MISS WILLOUGHBY)</t>
+          <t>16 - MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>6688</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - YOUNG MISS WILLOUGHBY) (CONT'D</t>
+          <t>17 - [VO]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>737</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - YOUNG MISS WILLOUGHBY</t>
+          <t>18 - THEN OLIVER</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - MISS WILLOUGHBY</t>
+          <t>19 - OLIVER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="C22" t="n">
-        <v>6078</v>
+        <v>2510</v>
       </c>
       <c r="D22" t="n">
-        <v>152</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - [VO])</t>
+          <t>20 - THEN MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -825,126 +825,126 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - THEN OLIVER</t>
+          <t>21 - ROBERT</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="C24" t="n">
-        <v>47</v>
+        <v>4955</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - (CONT'D) [VO])</t>
+          <t>22 - HELEN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C25" t="n">
-        <v>464</v>
+        <v>2320</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - OLIVER</t>
+          <t>23 - 2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>1991</v>
+        <v>72</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - THEN MISS WILLOUGHBY</t>
+          <t>24 - DIANA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C27" t="n">
-        <v>43</v>
+        <v>2029</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25 - MISS WILLOUGHBY)</t>
+          <t>25 - SARAH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
-        <v>38</v>
+        <v>1564</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26 - ROBERT</t>
+          <t>26 - 5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>4192</v>
+        <v>41</v>
       </c>
       <c r="D29" t="n">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27 - HELEN</t>
+          <t>27 - MAN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>1845</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28 - 2</t>
+          <t xml:space="preserve">28 - HELEN) </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -953,190 +953,190 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29 - DIANA</t>
+          <t>29 - CAROLE</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1603</v>
+        <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30 - SARAH)</t>
+          <t>30 - ANDREW</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31 - 5</t>
+          <t>31 - THE HELEN</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32 - SARAH</t>
+          <t>32 - BRIONY</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1238</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33 - DIANA)</t>
+          <t>33 - TITLE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>34 - MAN</t>
+          <t>34 - MURRAY</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>557</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35 - HELEN)</t>
+          <t xml:space="preserve">35 - MURRAY) </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>141</v>
+        <v>383</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>36 - HELEN) (CONT'D)</t>
+          <t>36 - TO MISS WILLOUGHBY</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37 - OLIVER)</t>
+          <t>37 - THE ROBERT</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38 - ROBERT)</t>
+          <t>38 - DR. SHIRANI</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>1213</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>39 - CAROLE</t>
+          <t>39 - SHIRANI</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40 - ANDREW</t>
+          <t>40 - THEN DR. SHIRANI</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -1145,190 +1145,190 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>41 - THE HELEN</t>
+          <t>41 - TO CHARLES</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>42 - BRIONY</t>
+          <t>42 - CHARLES</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>43 - TITLE)</t>
+          <t>43 - THE CHARLES</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>44 - MURRAY)</t>
+          <t>44 - PROFESSOR MURRAY</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>45 - MURRAY) (CONT'D)</t>
+          <t>45 - THEN PROFESSOR MURRAY</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>46 - TO MISS WILLOUGHBY)</t>
+          <t>46 - RONALD</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>47 - WILLOUGHBY (CONT'D)</t>
+          <t>47 - TO ROBERT</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>48 - THE ROBERT</t>
+          <t>48 - D.I. PRYCE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C51" t="n">
-        <v>49</v>
+        <v>901</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>49 - DR. SHIRANI</t>
+          <t>49 - TO D.I. PRYCE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>988</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>50 - SHIRANI</t>
+          <t>50 - PRYCE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>51 - THEN DR. SHIRANI</t>
+          <t>51 - OFFICER</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>52 - TO CHARLES)</t>
+          <t>52 - TO SARAH</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
@@ -1337,240 +1337,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>53 - CHARLES</t>
+          <t>53 - SPEAKER</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>54 - THE CHARLES</t>
+          <t>54 - OLIVE</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>55 - PROFESSOR MURRAY</t>
+          <t>55 - (LOGO</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>56 - THEN PROFESSOR MURRAY</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>47</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>57 - RONALD</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>20</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>58 - (CONT'D) THEN SARAH</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>4</v>
-      </c>
-      <c r="C61" t="n">
-        <v>82</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>59 - TO ROBERT)</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>60</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>60 - D.I. PRYCE</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>40</v>
-      </c>
-      <c r="C63" t="n">
-        <v>723</v>
-      </c>
-      <c r="D63" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>61 - TO D.I. PRYCE)</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>23</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>62 - PRYCE)</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>4</v>
-      </c>
-      <c r="C65" t="n">
-        <v>97</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>63 - OFFICER</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>30</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>64 - TO SARAH)</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>41</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>65 - SPEAKER</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>4</v>
-      </c>
-      <c r="C68" t="n">
-        <v>83</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>66 - OLIVE</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" t="n">
-        <v>49</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>67 - (LOGO)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>6</v>
-      </c>
-      <c r="C70" t="n">
-        <v>126</v>
-      </c>
-      <c r="D70" t="n">
         <v>4</v>
       </c>
     </row>
